--- a/downloaded_files/CMPS458_Tutorial-35880.xlsx
+++ b/downloaded_files/CMPS458_Tutorial-35880.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Magdy Mounir</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم محمد سيد احمد على عبد ربه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim mohamed sayed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210412</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1183,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.0577082523</x:v>
+        <x:v>45925.6724166319</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45916.038456169</x:v>
+        <x:v>45914.0577082523</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.3419053588</x:v>
+        <x:v>45916.038456169</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.0599210301</x:v>
+        <x:v>45912.3419053588</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.3515444097</x:v>
+        <x:v>45914.0599210301</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.543306169</x:v>
+        <x:v>45912.3515444097</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6385168634</x:v>
+        <x:v>45912.543306169</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.0585266204</x:v>
+        <x:v>45914.6385168634</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45914.0585266204</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS458_Tutorial-35880.xlsx
+++ b/downloaded_files/CMPS458_Tutorial-35880.xlsx
@@ -96,15 +96,6 @@
     <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
   </x:si>
   <x:si>
-    <x:t>1210248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد احمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Mohamed Ahmed Mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210014</x:t>
   </x:si>
   <x:si>
@@ -202,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد نبيل السيد الطوخى حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Nabil Elsayed Eltoukhy</x:t>
   </x:si>
   <x:si>
     <x:t>1210303</x:t>
@@ -968,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45912.342949537</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.342949537</x:v>
+        <x:v>45914.0329247338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.0329247338</x:v>
+        <x:v>45914.6389047106</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.6389047106</x:v>
+        <x:v>45914.0163826736</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.0163826736</x:v>
+        <x:v>45912.3521570255</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.3521570255</x:v>
+        <x:v>45918.0915960648</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.0915960648</x:v>
+        <x:v>45925.6724166319</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45925.6724166319</x:v>
+        <x:v>45914.0577082523</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.0577082523</x:v>
+        <x:v>45916.038456169</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45916.038456169</x:v>
+        <x:v>45912.3419053588</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.3419053588</x:v>
+        <x:v>45914.0599210301</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.0599210301</x:v>
+        <x:v>45927.5267324884</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>

--- a/downloaded_files/CMPS458_Tutorial-35880.xlsx
+++ b/downloaded_files/CMPS458_Tutorial-35880.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Mariam Mostafa Omar Habeb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفي أسامة عبدالحميد توفيق عبد الحميد نصار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Usama Abdelhameed Tawfeek Abdelhameed Nassar</x:t>
   </x:si>
   <x:si>
     <x:t>1210334</x:t>
@@ -353,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -661,8 +652,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="36.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="53.850625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.310625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.310625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1384,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.543306169</x:v>
+        <x:v>45914.6385168634</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6385168634</x:v>
+        <x:v>45914.0585266204</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1433,38 +1424,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45914.0585266204</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS458_Tutorial-35880.xlsx
+++ b/downloaded_files/CMPS458_Tutorial-35880.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد محمد محمود محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+    <x:t>Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210044</x:t>
@@ -165,7 +165,7 @@
     <x:t>لؤى احمد كمال عبدالغفار عثمان</x:t>
   </x:si>
   <x:si>
-    <x:t>Loay Ahmed Kamal Abdul Ghaffar Othman</x:t>
+    <x:t>Loay Ahmed Kamal Abdelghafar Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1210288</x:t>
@@ -192,7 +192,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>1210291</x:t>
@@ -653,7 +653,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.310625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.310625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.030625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
